--- a/pruebaLineal.xlsx
+++ b/pruebaLineal.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944" xr2:uid="{D0271595-F965-428C-A0E7-EF4629920444}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944" activeTab="1" xr2:uid="{D0271595-F965-428C-A0E7-EF4629920444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lineal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783412FA-AC47-4372-A468-7973D1F523A9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -421,4 +426,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.8" bottom="0.8" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pruebaLineal.xlsx
+++ b/pruebaLineal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944" activeTab="1" xr2:uid="{D0271595-F965-428C-A0E7-EF4629920444}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944" xr2:uid="{D0271595-F965-428C-A0E7-EF4629920444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,17 +371,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783412FA-AC47-4372-A468-7973D1F523A9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -396,7 +392,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -404,23 +400,47 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -432,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
